--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13918</v>
+        <v>86362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luna da Rocha</t>
+          <t>Sra. Giovanna da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>9619.549999999999</v>
+        <v>6591.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34866</v>
+        <v>2413</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yasmin Rocha</t>
+          <t>Sophia Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>6764.73</v>
+        <v>7519.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70364</v>
+        <v>85917</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Hugo Cardoso</t>
+          <t>Pedro Lucas Melo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>11341.66</v>
+        <v>6154.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45634</v>
+        <v>25290</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pedro Miguel Caldeira</t>
+          <t>Maitê da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>10203.73</v>
+        <v>5007.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82763</v>
+        <v>55873</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pedro Miguel Ramos</t>
+          <t>Clarice Aragão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>4654.88</v>
+        <v>2884.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45632</v>
+        <v>72847</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Giovanna Cardoso</t>
+          <t>Calebe Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>6890.95</v>
+        <v>5290.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41738</v>
+        <v>58098</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Augusto Pinto</t>
+          <t>Cecília Peixoto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>9390.82</v>
+        <v>10127.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48664</v>
+        <v>2866</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beatriz Cardoso</t>
+          <t>Guilherme da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>2842.81</v>
+        <v>3452.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15995</v>
+        <v>23427</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Luiza Duarte</t>
+          <t>Ana Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>7202.74</v>
+        <v>5109.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11077</v>
+        <v>57632</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. João Guilherme da Costa</t>
+          <t>Davi Lucca da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>7917.4</v>
+        <v>3019.19</v>
       </c>
     </row>
   </sheetData>
